--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,645 +498,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533459</v>
+        <v>555553</v>
       </c>
       <c r="C2" t="n">
-        <v>62040</v>
+        <v>79157</v>
       </c>
       <c r="D2" t="n">
-        <v>857972</v>
+        <v>1024484</v>
       </c>
       <c r="E2" t="n">
-        <v>271888</v>
+        <v>666003</v>
       </c>
       <c r="F2" t="n">
-        <v>55992</v>
+        <v>38600</v>
       </c>
       <c r="G2" t="n">
-        <v>82886</v>
+        <v>327407</v>
       </c>
       <c r="H2" t="n">
-        <v>2251113</v>
+        <v>3239740</v>
       </c>
       <c r="I2" t="n">
-        <v>57684</v>
+        <v>82460</v>
       </c>
       <c r="J2" t="n">
-        <v>81170</v>
+        <v>128167</v>
       </c>
       <c r="K2" t="n">
-        <v>53675</v>
+        <v>68379</v>
       </c>
       <c r="L2" t="n">
-        <v>99668</v>
+        <v>131099</v>
       </c>
       <c r="M2" t="n">
-        <v>94679</v>
+        <v>138431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525580</v>
+        <v>526367</v>
       </c>
       <c r="C3" t="n">
-        <v>71207</v>
+        <v>69081</v>
       </c>
       <c r="D3" t="n">
-        <v>815820</v>
+        <v>1048011</v>
       </c>
       <c r="E3" t="n">
-        <v>278153</v>
+        <v>761256</v>
       </c>
       <c r="F3" t="n">
-        <v>58790</v>
+        <v>34652</v>
       </c>
       <c r="G3" t="n">
-        <v>98159</v>
+        <v>304228</v>
       </c>
       <c r="H3" t="n">
-        <v>2269167</v>
+        <v>3286997</v>
       </c>
       <c r="I3" t="n">
-        <v>62231</v>
+        <v>77490</v>
       </c>
       <c r="J3" t="n">
-        <v>92663</v>
+        <v>128050</v>
       </c>
       <c r="K3" t="n">
-        <v>55407</v>
+        <v>64325</v>
       </c>
       <c r="L3" t="n">
-        <v>110813</v>
+        <v>138711</v>
       </c>
       <c r="M3" t="n">
-        <v>100344</v>
+        <v>134826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519262</v>
+        <v>559648</v>
       </c>
       <c r="C4" t="n">
-        <v>74649</v>
+        <v>75345</v>
       </c>
       <c r="D4" t="n">
-        <v>735231</v>
+        <v>1252009</v>
       </c>
       <c r="E4" t="n">
-        <v>306422</v>
+        <v>888520</v>
       </c>
       <c r="F4" t="n">
-        <v>53220</v>
+        <v>27457</v>
       </c>
       <c r="G4" t="n">
-        <v>108229</v>
+        <v>345177</v>
       </c>
       <c r="H4" t="n">
-        <v>2235890</v>
+        <v>3720160</v>
       </c>
       <c r="I4" t="n">
-        <v>66351</v>
+        <v>83448</v>
       </c>
       <c r="J4" t="n">
-        <v>93622</v>
+        <v>138222</v>
       </c>
       <c r="K4" t="n">
-        <v>59287</v>
+        <v>63517</v>
       </c>
       <c r="L4" t="n">
-        <v>119817</v>
+        <v>149305</v>
       </c>
       <c r="M4" t="n">
-        <v>99800</v>
+        <v>137512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510899</v>
+        <v>595807</v>
       </c>
       <c r="C5" t="n">
-        <v>77316</v>
+        <v>61170</v>
       </c>
       <c r="D5" t="n">
-        <v>704528</v>
+        <v>1419959</v>
       </c>
       <c r="E5" t="n">
-        <v>333839</v>
+        <v>916401</v>
       </c>
       <c r="F5" t="n">
-        <v>56221</v>
+        <v>22853</v>
       </c>
       <c r="G5" t="n">
-        <v>121516</v>
+        <v>354725</v>
       </c>
       <c r="H5" t="n">
-        <v>2255651</v>
+        <v>3957002</v>
       </c>
       <c r="I5" t="n">
-        <v>70129</v>
+        <v>91940</v>
       </c>
       <c r="J5" t="n">
-        <v>94635</v>
+        <v>158243</v>
       </c>
       <c r="K5" t="n">
-        <v>63902</v>
+        <v>66872</v>
       </c>
       <c r="L5" t="n">
-        <v>119484</v>
+        <v>122361</v>
       </c>
       <c r="M5" t="n">
-        <v>103182</v>
+        <v>146671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501526</v>
+        <v>664075</v>
       </c>
       <c r="C6" t="n">
-        <v>75383</v>
+        <v>54235</v>
       </c>
       <c r="D6" t="n">
-        <v>686296</v>
+        <v>1653846</v>
       </c>
       <c r="E6" t="n">
-        <v>351077</v>
+        <v>1030272</v>
       </c>
       <c r="F6" t="n">
-        <v>56709</v>
+        <v>18530</v>
       </c>
       <c r="G6" t="n">
-        <v>124966</v>
+        <v>374299</v>
       </c>
       <c r="H6" t="n">
-        <v>2236888</v>
+        <v>4375771</v>
       </c>
       <c r="I6" t="n">
-        <v>68243</v>
+        <v>108195</v>
       </c>
       <c r="J6" t="n">
-        <v>98121</v>
+        <v>165928</v>
       </c>
       <c r="K6" t="n">
-        <v>63782</v>
+        <v>73616</v>
       </c>
       <c r="L6" t="n">
-        <v>105548</v>
+        <v>68388</v>
       </c>
       <c r="M6" t="n">
-        <v>105237</v>
+        <v>164387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520473</v>
+        <v>866704</v>
       </c>
       <c r="C7" t="n">
-        <v>76294</v>
+        <v>54231</v>
       </c>
       <c r="D7" t="n">
-        <v>786542</v>
+        <v>2187697</v>
       </c>
       <c r="E7" t="n">
-        <v>401863</v>
+        <v>1321181</v>
       </c>
       <c r="F7" t="n">
-        <v>49464</v>
+        <v>21257</v>
       </c>
       <c r="G7" t="n">
-        <v>147592</v>
+        <v>455761</v>
       </c>
       <c r="H7" t="n">
-        <v>2440738</v>
+        <v>5616624</v>
       </c>
       <c r="I7" t="n">
-        <v>71528</v>
+        <v>144911</v>
       </c>
       <c r="J7" t="n">
-        <v>99350</v>
+        <v>226370</v>
       </c>
       <c r="K7" t="n">
-        <v>66422</v>
+        <v>88829</v>
       </c>
       <c r="L7" t="n">
-        <v>107064</v>
+        <v>43268</v>
       </c>
       <c r="M7" t="n">
-        <v>114146</v>
+        <v>206415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>587151</v>
+        <v>1044953</v>
       </c>
       <c r="C8" t="n">
-        <v>72100</v>
+        <v>59862</v>
       </c>
       <c r="D8" t="n">
-        <v>897905</v>
+        <v>2639302</v>
       </c>
       <c r="E8" t="n">
-        <v>492809</v>
+        <v>1645013</v>
       </c>
       <c r="F8" t="n">
-        <v>49370</v>
+        <v>21907</v>
       </c>
       <c r="G8" t="n">
-        <v>286221</v>
+        <v>474770</v>
       </c>
       <c r="H8" t="n">
-        <v>2905603</v>
+        <v>6686934</v>
       </c>
       <c r="I8" t="n">
-        <v>81357</v>
+        <v>169889</v>
       </c>
       <c r="J8" t="n">
-        <v>118564</v>
+        <v>254795</v>
       </c>
       <c r="K8" t="n">
-        <v>77660</v>
+        <v>96431</v>
       </c>
       <c r="L8" t="n">
-        <v>114587</v>
+        <v>31639</v>
       </c>
       <c r="M8" t="n">
-        <v>127879</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>594404</v>
-      </c>
-      <c r="C9" t="n">
-        <v>79620</v>
-      </c>
-      <c r="D9" t="n">
-        <v>979094</v>
-      </c>
-      <c r="E9" t="n">
-        <v>604174</v>
-      </c>
-      <c r="F9" t="n">
-        <v>39254</v>
-      </c>
-      <c r="G9" t="n">
-        <v>317072</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3154347</v>
-      </c>
-      <c r="I9" t="n">
-        <v>86418</v>
-      </c>
-      <c r="J9" t="n">
-        <v>126821</v>
-      </c>
-      <c r="K9" t="n">
-        <v>76895</v>
-      </c>
-      <c r="L9" t="n">
-        <v>115946</v>
-      </c>
-      <c r="M9" t="n">
-        <v>134649</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>555553</v>
-      </c>
-      <c r="C10" t="n">
-        <v>79157</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1024484</v>
-      </c>
-      <c r="E10" t="n">
-        <v>666003</v>
-      </c>
-      <c r="F10" t="n">
-        <v>38600</v>
-      </c>
-      <c r="G10" t="n">
-        <v>327407</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3239740</v>
-      </c>
-      <c r="I10" t="n">
-        <v>82460</v>
-      </c>
-      <c r="J10" t="n">
-        <v>128167</v>
-      </c>
-      <c r="K10" t="n">
-        <v>68379</v>
-      </c>
-      <c r="L10" t="n">
-        <v>131099</v>
-      </c>
-      <c r="M10" t="n">
-        <v>138431</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>526367</v>
-      </c>
-      <c r="C11" t="n">
-        <v>69081</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1048011</v>
-      </c>
-      <c r="E11" t="n">
-        <v>761256</v>
-      </c>
-      <c r="F11" t="n">
-        <v>34652</v>
-      </c>
-      <c r="G11" t="n">
-        <v>304228</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3286997</v>
-      </c>
-      <c r="I11" t="n">
-        <v>77490</v>
-      </c>
-      <c r="J11" t="n">
-        <v>128050</v>
-      </c>
-      <c r="K11" t="n">
-        <v>64325</v>
-      </c>
-      <c r="L11" t="n">
-        <v>138711</v>
-      </c>
-      <c r="M11" t="n">
-        <v>134826</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>559648</v>
-      </c>
-      <c r="C12" t="n">
-        <v>75345</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1252009</v>
-      </c>
-      <c r="E12" t="n">
-        <v>888520</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27457</v>
-      </c>
-      <c r="G12" t="n">
-        <v>345177</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3720160</v>
-      </c>
-      <c r="I12" t="n">
-        <v>83448</v>
-      </c>
-      <c r="J12" t="n">
-        <v>138222</v>
-      </c>
-      <c r="K12" t="n">
-        <v>63517</v>
-      </c>
-      <c r="L12" t="n">
-        <v>149305</v>
-      </c>
-      <c r="M12" t="n">
-        <v>137512</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>595807</v>
-      </c>
-      <c r="C13" t="n">
-        <v>61170</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1419959</v>
-      </c>
-      <c r="E13" t="n">
-        <v>916401</v>
-      </c>
-      <c r="F13" t="n">
-        <v>22853</v>
-      </c>
-      <c r="G13" t="n">
-        <v>354725</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3957002</v>
-      </c>
-      <c r="I13" t="n">
-        <v>91940</v>
-      </c>
-      <c r="J13" t="n">
-        <v>158243</v>
-      </c>
-      <c r="K13" t="n">
-        <v>66872</v>
-      </c>
-      <c r="L13" t="n">
-        <v>122361</v>
-      </c>
-      <c r="M13" t="n">
-        <v>146671</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>664075</v>
-      </c>
-      <c r="C14" t="n">
-        <v>54235</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1653846</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1030272</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18530</v>
-      </c>
-      <c r="G14" t="n">
-        <v>374299</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4375771</v>
-      </c>
-      <c r="I14" t="n">
-        <v>108195</v>
-      </c>
-      <c r="J14" t="n">
-        <v>165928</v>
-      </c>
-      <c r="K14" t="n">
-        <v>73616</v>
-      </c>
-      <c r="L14" t="n">
-        <v>68388</v>
-      </c>
-      <c r="M14" t="n">
-        <v>164387</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>866704</v>
-      </c>
-      <c r="C15" t="n">
-        <v>54231</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2187697</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1321181</v>
-      </c>
-      <c r="F15" t="n">
-        <v>21257</v>
-      </c>
-      <c r="G15" t="n">
-        <v>455761</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5616624</v>
-      </c>
-      <c r="I15" t="n">
-        <v>144911</v>
-      </c>
-      <c r="J15" t="n">
-        <v>226370</v>
-      </c>
-      <c r="K15" t="n">
-        <v>88829</v>
-      </c>
-      <c r="L15" t="n">
-        <v>43268</v>
-      </c>
-      <c r="M15" t="n">
-        <v>206415</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1044953</v>
-      </c>
-      <c r="C16" t="n">
-        <v>59862</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2639302</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1645013</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21907</v>
-      </c>
-      <c r="G16" t="n">
-        <v>474770</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6686934</v>
-      </c>
-      <c r="I16" t="n">
-        <v>169889</v>
-      </c>
-      <c r="J16" t="n">
-        <v>254795</v>
-      </c>
-      <c r="K16" t="n">
-        <v>96431</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31639</v>
-      </c>
-      <c r="M16" t="n">
         <v>248373</v>
       </c>
     </row>
